--- a/NetAgent/src/main/resources/Downloads/CourierActivityNetAgent.xlsx
+++ b/NetAgent/src/main/resources/Downloads/CourierActivityNetAgent.xlsx
@@ -371,7 +371,7 @@
       </c>
       <c s="4" t="inlineStr" r="F7">
         <is>
-          <t xml:space="preserve">05/21/2023</t>
+          <t xml:space="preserve">08/15/2023</t>
         </is>
       </c>
       <c s="3" t="inlineStr" r="J7">
@@ -381,7 +381,7 @@
       </c>
       <c s="4" t="inlineStr" r="K7">
         <is>
-          <t xml:space="preserve">05/31/2023</t>
+          <t xml:space="preserve">08/25/2023</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;9 *Data provided should be considered CONFIDENTIAL and PROPRIETARY* 
 &amp;"-,Regular"©2011-2023 MNX Global Logistics. All rights reserved. 
-&amp;"-,Regular"5/30/2023 10:11 PM 
+&amp;"-,Regular"8/24/2023 11:01 PM 
 &amp;"-,Regular"Print User : selenium.automation &amp;R&amp;"Arial,Regular"&amp;9Pag</oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>
